--- a/ScrumBoard Template.xlsx
+++ b/ScrumBoard Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>User Story</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                 Forget Password Integration</t>
+  </si>
+  <si>
+    <t>1-ADMIN-LIST ALL FLIGHTS                             2-ADMIN-LIST ALL FLIGHTS BOOKINGS    3-ONE-WAY BOOKING                                        4-UI FOR ALL THE FUNCTIONALITY MENTIONED ABOVE AND INTEGRATING IT WITH THE BACKEND</t>
+  </si>
+  <si>
+    <t>1-TWO-WAY BOOKING                                       2-PAYMENT                                                             3-UI FOR ALL THE FUNCTIONALITY MENTIONED ABOVE AND INTEGRATING IT WITH THE BACKEND</t>
+  </si>
+  <si>
+    <t>1-CANCELLATION                                                    2-USER-FLIGHT HISTORY                                    3-USER-UPCOMING FLIGHTS                           4-UI FOR ALL THE FUNCTIONALITY MENTIONED ABOVE AND INTEGRATING IT WITH THE BACKEND</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,9 +157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -461,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,7 +526,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -598,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -609,7 +615,7 @@
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="49.5" customHeight="1">
@@ -638,62 +644,65 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6"/>
-      <c r="B4">
-        <v>3</v>
+    <row r="2" spans="1:12" ht="101.25" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="94.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="101.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="B5">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4"/>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4"/>
       <c r="B8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4"/>
       <c r="F9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
+      <c r="A11" s="4"/>
       <c r="B11">
         <v>10</v>
       </c>
@@ -702,9 +711,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -757,18 +763,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,18 +995,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C23CF230-A18F-4B3E-9CF3-A6E27D43B711}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9320DB1-779A-48B2-9398-67038865AB85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C23CF230-A18F-4B3E-9CF3-A6E27D43B711}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
